--- a/projectFor3Lab/Sorting_Performance_Report.xlsx
+++ b/projectFor3Lab/Sorting_Performance_Report.xlsx
@@ -147,19 +147,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>496.0</v>
+        <v>526.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>263.0</v>
+        <v>0.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>132.0</v>
+        <v>151.0</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>121.0</v>
+        <v>169.0</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>-131.0</v>
+        <v>151.0</v>
       </c>
     </row>
     <row r="3">
@@ -167,19 +167,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>376.0</v>
+        <v>492.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>108.0</v>
+        <v>0.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>185.0</v>
+        <v>102.0</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>205.0</v>
+        <v>103.0</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>77.0</v>
+        <v>102.0</v>
       </c>
     </row>
     <row r="4">
@@ -187,19 +187,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>349.0</v>
+        <v>479.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>90.0</v>
+        <v>0.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>192.0</v>
+        <v>91.0</v>
       </c>
       <c r="E4" t="n" s="0">
-        <v>104.0</v>
+        <v>93.0</v>
       </c>
       <c r="F4" t="n" s="0">
-        <v>102.0</v>
+        <v>91.0</v>
       </c>
     </row>
     <row r="5">
@@ -207,19 +207,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>454.0</v>
+        <v>376.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>206.0</v>
+        <v>0.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>200.0</v>
+        <v>87.0</v>
       </c>
       <c r="E5" t="n" s="0">
-        <v>86.0</v>
+        <v>191.0</v>
       </c>
       <c r="F5" t="n" s="0">
-        <v>-6.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="6">
@@ -227,19 +227,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>349.0</v>
+        <v>372.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>92.0</v>
+        <v>0.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>192.0</v>
+        <v>87.0</v>
       </c>
       <c r="E6" t="n" s="0">
-        <v>88.0</v>
+        <v>97.0</v>
       </c>
       <c r="F6" t="n" s="0">
-        <v>100.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="7">
@@ -247,19 +247,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>404.8</v>
+        <v>449.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>151.8</v>
+        <v>0.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>180.2</v>
+        <v>103.6</v>
       </c>
       <c r="E7" t="n" s="0">
-        <v>120.8</v>
+        <v>130.6</v>
       </c>
       <c r="F7" t="n" s="0">
-        <v>28.399999999999977</v>
+        <v>103.6</v>
       </c>
     </row>
   </sheetData>

--- a/projectFor3Lab/Sorting_Performance_Report.xlsx
+++ b/projectFor3Lab/Sorting_Performance_Report.xlsx
@@ -147,19 +147,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>526.0</v>
+        <v>447.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>0.0</v>
+        <v>98.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>151.0</v>
+        <v>79.0</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>169.0</v>
+        <v>181.0</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>151.0</v>
+        <v>-19.0</v>
       </c>
     </row>
     <row r="3">
@@ -167,19 +167,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>492.0</v>
+        <v>450.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>0.0</v>
+        <v>194.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>102.0</v>
+        <v>190.0</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>103.0</v>
+        <v>186.0</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>102.0</v>
+        <v>-4.0</v>
       </c>
     </row>
     <row r="4">
@@ -187,19 +187,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>479.0</v>
+        <v>333.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>0.0</v>
+        <v>92.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>91.0</v>
+        <v>197.0</v>
       </c>
       <c r="E4" t="n" s="0">
-        <v>93.0</v>
+        <v>77.0</v>
       </c>
       <c r="F4" t="n" s="0">
-        <v>91.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="5">
@@ -207,16 +207,16 @@
         <v>9</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>376.0</v>
+        <v>334.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>0.0</v>
+        <v>93.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>87.0</v>
+        <v>180.0</v>
       </c>
       <c r="E5" t="n" s="0">
-        <v>191.0</v>
+        <v>76.0</v>
       </c>
       <c r="F5" t="n" s="0">
         <v>87.0</v>
@@ -227,19 +227,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>372.0</v>
+        <v>332.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>0.0</v>
+        <v>96.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>87.0</v>
+        <v>75.0</v>
       </c>
       <c r="E6" t="n" s="0">
-        <v>97.0</v>
+        <v>179.0</v>
       </c>
       <c r="F6" t="n" s="0">
-        <v>87.0</v>
+        <v>-21.0</v>
       </c>
     </row>
     <row r="7">
@@ -247,19 +247,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>449.0</v>
+        <v>379.2</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>0.0</v>
+        <v>114.6</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>103.6</v>
+        <v>144.2</v>
       </c>
       <c r="E7" t="n" s="0">
-        <v>130.6</v>
+        <v>139.8</v>
       </c>
       <c r="F7" t="n" s="0">
-        <v>103.6</v>
+        <v>29.599999999999994</v>
       </c>
     </row>
   </sheetData>

--- a/projectFor3Lab/Sorting_Performance_Report.xlsx
+++ b/projectFor3Lab/Sorting_Performance_Report.xlsx
@@ -147,19 +147,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>447.0</v>
+        <v>393.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>98.0</v>
+        <v>149.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>79.0</v>
+        <v>209.0</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>181.0</v>
+        <v>132.0</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>-19.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="3">
@@ -167,19 +167,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>450.0</v>
+        <v>447.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>194.0</v>
+        <v>113.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>190.0</v>
+        <v>87.0</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>186.0</v>
+        <v>100.0</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>-4.0</v>
+        <v>-26.0</v>
       </c>
     </row>
     <row r="4">
@@ -187,19 +187,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>333.0</v>
+        <v>371.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>92.0</v>
+        <v>182.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>197.0</v>
+        <v>79.0</v>
       </c>
       <c r="E4" t="n" s="0">
-        <v>77.0</v>
+        <v>75.0</v>
       </c>
       <c r="F4" t="n" s="0">
-        <v>105.0</v>
+        <v>-103.0</v>
       </c>
     </row>
     <row r="5">
@@ -207,19 +207,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>334.0</v>
+        <v>375.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>93.0</v>
+        <v>201.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>180.0</v>
+        <v>75.0</v>
       </c>
       <c r="E5" t="n" s="0">
-        <v>76.0</v>
+        <v>179.0</v>
       </c>
       <c r="F5" t="n" s="0">
-        <v>87.0</v>
+        <v>-126.0</v>
       </c>
     </row>
     <row r="6">
@@ -227,19 +227,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>332.0</v>
+        <v>640.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>96.0</v>
+        <v>91.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>75.0</v>
+        <v>336.0</v>
       </c>
       <c r="E6" t="n" s="0">
-        <v>179.0</v>
+        <v>107.0</v>
       </c>
       <c r="F6" t="n" s="0">
-        <v>-21.0</v>
+        <v>245.0</v>
       </c>
     </row>
     <row r="7">
@@ -247,19 +247,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>379.2</v>
+        <v>445.2</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>114.6</v>
+        <v>147.2</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>144.2</v>
+        <v>157.2</v>
       </c>
       <c r="E7" t="n" s="0">
-        <v>139.8</v>
+        <v>118.6</v>
       </c>
       <c r="F7" t="n" s="0">
-        <v>29.599999999999994</v>
+        <v>10.0</v>
       </c>
     </row>
   </sheetData>
